--- a/aggregated_medici_distances_weighted.xlsx
+++ b/aggregated_medici_distances_weighted.xlsx
@@ -47209,16 +47209,16 @@
         <v>1020</v>
       </c>
       <c r="D1806" t="n">
-        <v>395.8833333333333</v>
+        <v>0.1806666666666667</v>
       </c>
       <c r="E1806" t="n">
-        <v>352.957909923171</v>
+        <v>0.08556479026640183</v>
       </c>
       <c r="F1806" t="n">
-        <v>253.0722222222222</v>
+        <v>1.15</v>
       </c>
       <c r="G1806" t="n">
-        <v>229.2401617502031</v>
+        <v>0.8288211172770905</v>
       </c>
     </row>
     <row r="1807">
@@ -47236,16 +47236,16 @@
         <v>39</v>
       </c>
       <c r="D1807" t="n">
-        <v>398.9999999999999</v>
+        <v>1.923666666666667</v>
       </c>
       <c r="E1807" t="n">
-        <v>355.2233156804322</v>
+        <v>0.108075590830369</v>
       </c>
       <c r="F1807" t="n">
-        <v>253.4666666666667</v>
+        <v>3.755555555555556</v>
       </c>
       <c r="G1807" t="n">
-        <v>228.5221232907951</v>
+        <v>0.7941335833146385</v>
       </c>
     </row>
     <row r="1808">
@@ -47263,16 +47263,16 @@
         <v>38</v>
       </c>
       <c r="D1808" t="n">
-        <v>398.8046666666667</v>
+        <v>3.904333333333333</v>
       </c>
       <c r="E1808" t="n">
-        <v>353.4319668257716</v>
+        <v>0.1002812710995097</v>
       </c>
       <c r="F1808" t="n">
-        <v>253.7166666666666</v>
+        <v>6.905555555555556</v>
       </c>
       <c r="G1808" t="n">
-        <v>226.6633118624283</v>
+        <v>1.328776936941693</v>
       </c>
     </row>
     <row r="1809">
@@ -47290,16 +47290,16 @@
         <v>19</v>
       </c>
       <c r="D1809" t="n">
-        <v>399.5443333333334</v>
+        <v>4.923666666666667</v>
       </c>
       <c r="E1809" t="n">
-        <v>353.165090558698</v>
+        <v>0.1080755908303691</v>
       </c>
       <c r="F1809" t="n">
-        <v>256.4222222222222</v>
+        <v>8.68888888888889</v>
       </c>
       <c r="G1809" t="n">
-        <v>227.1425839113528</v>
+        <v>1.417189446025451</v>
       </c>
     </row>
     <row r="1810">
@@ -47317,16 +47317,16 @@
         <v>14</v>
       </c>
       <c r="D1810" t="n">
-        <v>399.2476666666666</v>
+        <v>4.385333333333333</v>
       </c>
       <c r="E1810" t="n">
-        <v>353.4319668257716</v>
+        <v>0.1031762246514833</v>
       </c>
       <c r="F1810" t="n">
-        <v>254.5388888888889</v>
+        <v>6.738888888888888</v>
       </c>
       <c r="G1810" t="n">
-        <v>226.6594461676747</v>
+        <v>0.4522577108652068</v>
       </c>
     </row>
     <row r="1811">
@@ -47344,16 +47344,16 @@
         <v>31</v>
       </c>
       <c r="D1811" t="n">
-        <v>399.579</v>
+        <v>4.162666666666667</v>
       </c>
       <c r="E1811" t="n">
-        <v>353.4314081727882</v>
+        <v>0.4658125517129538</v>
       </c>
       <c r="F1811" t="n">
-        <v>254.8277777777778</v>
+        <v>6.766666666666667</v>
       </c>
       <c r="G1811" t="n">
-        <v>226.6018732964966</v>
+        <v>0.3059593291780967</v>
       </c>
     </row>
     <row r="1812">
@@ -47371,16 +47371,16 @@
         <v>8</v>
       </c>
       <c r="D1812" t="n">
-        <v>397.032</v>
+        <v>1.324333333333333</v>
       </c>
       <c r="E1812" t="n">
-        <v>353.095836094112</v>
+        <v>0.04214656965084265</v>
       </c>
       <c r="F1812" t="n">
-        <v>255.2333333333333</v>
+        <v>3.538888888888889</v>
       </c>
       <c r="G1812" t="n">
-        <v>228.9790771615996</v>
+        <v>0.1873301700009707</v>
       </c>
     </row>
     <row r="1813">
@@ -47398,16 +47398,16 @@
         <v>13</v>
       </c>
       <c r="D1813" t="n">
-        <v>399.1153333333333</v>
+        <v>1.763</v>
       </c>
       <c r="E1813" t="n">
-        <v>355.5563973441251</v>
+        <v>0.2100166660053434</v>
       </c>
       <c r="F1813" t="n">
-        <v>254.3111111111111</v>
+        <v>4.322222222222222</v>
       </c>
       <c r="G1813" t="n">
-        <v>228.3165111402573</v>
+        <v>0.5872093449655027</v>
       </c>
     </row>
     <row r="1814">
